--- a/src/main/java/com/cdp/InputFiles/Results.xlsx
+++ b/src/main/java/com/cdp/InputFiles/Results.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Fail" sheetId="3" r:id="rId3"/>
     <sheet name="NoRun" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -97,7 +97,7 @@
     <t>Project:</t>
   </si>
   <si>
-    <t>Verizon</t>
+    <t>CDP</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
           <c:x val="4.8860012564912077E-2"/>
           <c:y val="0.4690275620237358"/>
           <c:w val="0.90228156536537651"/>
-          <c:h val="0.32743433575241943"/>
+          <c:h val="0.32743433575241954"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -562,11 +562,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="67396352"/>
-        <c:axId val="67397888"/>
+        <c:axId val="60556800"/>
+        <c:axId val="60558720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67396352"/>
+        <c:axId val="60556800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -599,7 +599,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67397888"/>
+        <c:crossAx val="60558720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -608,7 +608,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67397888"/>
+        <c:axId val="60558720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -616,7 +616,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67396352"/>
+        <c:crossAx val="60556800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -633,10 +633,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11726418562500539"/>
-          <c:y val="0.25663763268529471"/>
-          <c:w val="0.76547368061077081"/>
-          <c:h val="9.2920353982300988E-2"/>
+          <c:x val="0.1172641856250054"/>
+          <c:y val="0.25663763268529466"/>
+          <c:w val="0.76547368061077092"/>
+          <c:h val="9.2920353982301016E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -696,7 +696,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -733,7 +733,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.22975953248562381"/>
+          <c:x val="0.22975953248562384"/>
           <c:y val="6.4725170223287304E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -750,9 +750,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.8543842738176093E-2"/>
-          <c:y val="0.49758688852510075"/>
-          <c:w val="0.90291547493007618"/>
+          <c:x val="4.854384273817608E-2"/>
+          <c:y val="0.49758688852510086"/>
+          <c:w val="0.90291547493007629"/>
           <c:h val="0.28019455858694975"/>
         </c:manualLayout>
       </c:layout>
@@ -875,11 +875,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="66771968"/>
-        <c:axId val="66802432"/>
+        <c:axId val="74688384"/>
+        <c:axId val="60370944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66771968"/>
+        <c:axId val="74688384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -912,7 +912,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66802432"/>
+        <c:crossAx val="60370944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -921,7 +921,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66802432"/>
+        <c:axId val="60370944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,7 +929,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66771968"/>
+        <c:crossAx val="74688384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -948,10 +948,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.25566410994742172"/>
+          <c:x val="0.25566410994742178"/>
           <c:y val="0.28019475826391266"/>
-          <c:w val="0.48867483797535038"/>
-          <c:h val="0.10628070041969394"/>
+          <c:w val="0.48867483797535044"/>
+          <c:h val="0.10628070041969397"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1011,7 +1011,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1377,7 +1377,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
